--- a/natmiOut/YoungD4/LR-pairs_lrc2p/Pdgfb-Lrp1.xlsx
+++ b/natmiOut/YoungD4/LR-pairs_lrc2p/Pdgfb-Lrp1.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="100" uniqueCount="27">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="120" uniqueCount="27">
   <si>
     <t>Sending cluster</t>
   </si>
@@ -79,6 +79,9 @@
     <t>ECs</t>
   </si>
   <si>
+    <t>FAPs</t>
+  </si>
+  <si>
     <t>M1</t>
   </si>
   <si>
@@ -92,9 +95,6 @@
   </si>
   <si>
     <t>Lrp1</t>
-  </si>
-  <si>
-    <t>FAPs</t>
   </si>
 </sst>
 </file>
@@ -452,7 +452,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:T21"/>
+  <dimension ref="A1:T26"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -525,61 +525,61 @@
         <v>20</v>
       </c>
       <c r="B2" t="s">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="C2" t="s">
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="D2" t="s">
         <v>20</v>
       </c>
       <c r="E2">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F2">
         <v>1</v>
       </c>
       <c r="G2">
-        <v>48.4108750991181</v>
+        <v>49.195614</v>
       </c>
       <c r="H2">
-        <v>48.4108750991181</v>
+        <v>147.586842</v>
       </c>
       <c r="I2">
-        <v>0.9085127098602098</v>
+        <v>0.8724243622956617</v>
       </c>
       <c r="J2">
-        <v>0.9085127098602098</v>
+        <v>0.8724243622956616</v>
       </c>
       <c r="K2">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L2">
         <v>1</v>
       </c>
       <c r="M2">
-        <v>5.19882538444689</v>
+        <v>6.744736333333333</v>
       </c>
       <c r="N2">
-        <v>5.19882538444689</v>
+        <v>20.234209</v>
       </c>
       <c r="O2">
-        <v>0.008204928361947422</v>
+        <v>0.01049273071342527</v>
       </c>
       <c r="P2">
-        <v>0.008204928361947422</v>
+        <v>0.01049273071342527</v>
       </c>
       <c r="Q2">
-        <v>251.679686348583</v>
+        <v>331.811445186442</v>
       </c>
       <c r="R2">
-        <v>251.679686348583</v>
+        <v>2986.303006677978</v>
       </c>
       <c r="S2">
-        <v>0.007454281700321745</v>
+        <v>0.009154113901400146</v>
       </c>
       <c r="T2">
-        <v>0.007454281700321745</v>
+        <v>0.009154113901400147</v>
       </c>
     </row>
     <row r="3" spans="1:20">
@@ -587,61 +587,61 @@
         <v>20</v>
       </c>
       <c r="B3" t="s">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="C3" t="s">
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="D3" t="s">
-        <v>26</v>
+        <v>21</v>
       </c>
       <c r="E3">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F3">
         <v>1</v>
       </c>
       <c r="G3">
-        <v>48.4108750991181</v>
+        <v>49.195614</v>
       </c>
       <c r="H3">
-        <v>48.4108750991181</v>
+        <v>147.586842</v>
       </c>
       <c r="I3">
-        <v>0.9085127098602098</v>
+        <v>0.8724243622956617</v>
       </c>
       <c r="J3">
-        <v>0.9085127098602098</v>
+        <v>0.8724243622956616</v>
       </c>
       <c r="K3">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L3">
         <v>1</v>
       </c>
       <c r="M3">
-        <v>182.049377209107</v>
+        <v>182.5316823333334</v>
       </c>
       <c r="N3">
-        <v>182.049377209107</v>
+        <v>547.595047</v>
       </c>
       <c r="O3">
-        <v>0.2873153044929174</v>
+        <v>0.283963033503136</v>
       </c>
       <c r="P3">
-        <v>0.2873153044929174</v>
+        <v>0.2839630335031361</v>
       </c>
       <c r="Q3">
-        <v>8813.169661942316</v>
+        <v>8979.758186841287</v>
       </c>
       <c r="R3">
-        <v>8813.169661942316</v>
+        <v>80817.82368157158</v>
       </c>
       <c r="S3">
-        <v>0.2610296058691717</v>
+        <v>0.247736268419515</v>
       </c>
       <c r="T3">
-        <v>0.2610296058691717</v>
+        <v>0.2477362684195151</v>
       </c>
     </row>
     <row r="4" spans="1:20">
@@ -649,61 +649,61 @@
         <v>20</v>
       </c>
       <c r="B4" t="s">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="C4" t="s">
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="D4" t="s">
-        <v>21</v>
+        <v>22</v>
       </c>
       <c r="E4">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F4">
         <v>1</v>
       </c>
       <c r="G4">
-        <v>48.4108750991181</v>
+        <v>49.195614</v>
       </c>
       <c r="H4">
-        <v>48.4108750991181</v>
+        <v>147.586842</v>
       </c>
       <c r="I4">
-        <v>0.9085127098602098</v>
+        <v>0.8724243622956617</v>
       </c>
       <c r="J4">
-        <v>0.9085127098602098</v>
+        <v>0.8724243622956616</v>
       </c>
       <c r="K4">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L4">
         <v>1</v>
       </c>
       <c r="M4">
-        <v>248.975499920352</v>
+        <v>249.1329143333333</v>
       </c>
       <c r="N4">
-        <v>248.975499920352</v>
+        <v>747.398743</v>
       </c>
       <c r="O4">
-        <v>0.3929399411717063</v>
+        <v>0.3875740210972192</v>
       </c>
       <c r="P4">
-        <v>0.3929399411717063</v>
+        <v>0.3875740210972192</v>
       </c>
       <c r="Q4">
-        <v>12053.12182938465</v>
+        <v>12256.24668823773</v>
       </c>
       <c r="R4">
-        <v>12053.12182938465</v>
+        <v>110306.2201941396</v>
       </c>
       <c r="S4">
-        <v>0.3569909307662184</v>
+        <v>0.3381290181981068</v>
       </c>
       <c r="T4">
-        <v>0.3569909307662184</v>
+        <v>0.3381290181981068</v>
       </c>
     </row>
     <row r="5" spans="1:20">
@@ -711,61 +711,61 @@
         <v>20</v>
       </c>
       <c r="B5" t="s">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="C5" t="s">
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="D5" t="s">
-        <v>22</v>
+        <v>23</v>
       </c>
       <c r="E5">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F5">
         <v>1</v>
       </c>
       <c r="G5">
-        <v>48.4108750991181</v>
+        <v>49.195614</v>
       </c>
       <c r="H5">
-        <v>48.4108750991181</v>
+        <v>147.586842</v>
       </c>
       <c r="I5">
-        <v>0.9085127098602098</v>
+        <v>0.8724243622956617</v>
       </c>
       <c r="J5">
-        <v>0.9085127098602098</v>
+        <v>0.8724243622956616</v>
       </c>
       <c r="K5">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L5">
         <v>1</v>
       </c>
       <c r="M5">
-        <v>181.911640839075</v>
+        <v>186.9310863333334</v>
       </c>
       <c r="N5">
-        <v>181.911640839075</v>
+        <v>560.793259</v>
       </c>
       <c r="O5">
-        <v>0.2870979251879059</v>
+        <v>0.2908071500393791</v>
       </c>
       <c r="P5">
-        <v>0.2870979251879059</v>
+        <v>0.2908071500393791</v>
       </c>
       <c r="Q5">
-        <v>8806.501723736092</v>
+        <v>9196.189567855343</v>
       </c>
       <c r="R5">
-        <v>8806.501723736092</v>
+        <v>82765.70611069808</v>
       </c>
       <c r="S5">
-        <v>0.2608321140077082</v>
+        <v>0.2537072424241241</v>
       </c>
       <c r="T5">
-        <v>0.2608321140077082</v>
+        <v>0.2537072424241241</v>
       </c>
     </row>
     <row r="6" spans="1:20">
@@ -773,61 +773,61 @@
         <v>20</v>
       </c>
       <c r="B6" t="s">
+        <v>25</v>
+      </c>
+      <c r="C6" t="s">
+        <v>26</v>
+      </c>
+      <c r="D6" t="s">
         <v>24</v>
       </c>
-      <c r="C6" t="s">
-        <v>25</v>
-      </c>
-      <c r="D6" t="s">
-        <v>23</v>
-      </c>
       <c r="E6">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F6">
         <v>1</v>
       </c>
       <c r="G6">
-        <v>48.4108750991181</v>
+        <v>49.195614</v>
       </c>
       <c r="H6">
-        <v>48.4108750991181</v>
+        <v>147.586842</v>
       </c>
       <c r="I6">
-        <v>0.9085127098602098</v>
+        <v>0.8724243622956617</v>
       </c>
       <c r="J6">
-        <v>0.9085127098602098</v>
+        <v>0.8724243622956616</v>
       </c>
       <c r="K6">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L6">
         <v>1</v>
       </c>
       <c r="M6">
-        <v>15.4869328094595</v>
+        <v>17.46044133333334</v>
       </c>
       <c r="N6">
-        <v>15.4869328094595</v>
+        <v>52.38132400000001</v>
       </c>
       <c r="O6">
-        <v>0.0244419007855228</v>
+        <v>0.02716306464684043</v>
       </c>
       <c r="P6">
-        <v>0.0244419007855228</v>
+        <v>0.02716306464684043</v>
       </c>
       <c r="Q6">
-        <v>749.7359699071781</v>
+        <v>858.9771321043121</v>
       </c>
       <c r="R6">
-        <v>749.7359699071781</v>
+        <v>7730.794188938808</v>
       </c>
       <c r="S6">
-        <v>0.02220577751678971</v>
+        <v>0.02369771935251559</v>
       </c>
       <c r="T6">
-        <v>0.02220577751678971</v>
+        <v>0.02369771935251559</v>
       </c>
     </row>
     <row r="7" spans="1:20">
@@ -835,10 +835,10 @@
         <v>21</v>
       </c>
       <c r="B7" t="s">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="C7" t="s">
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="D7" t="s">
         <v>20</v>
@@ -847,49 +847,49 @@
         <v>1</v>
       </c>
       <c r="F7">
-        <v>1</v>
+        <v>0.3333333333333333</v>
       </c>
       <c r="G7">
-        <v>1.85613439842071</v>
+        <v>0.05229733333333333</v>
       </c>
       <c r="H7">
-        <v>1.85613439842071</v>
+        <v>0.156892</v>
       </c>
       <c r="I7">
-        <v>0.03483353045614887</v>
+        <v>0.0009274295810821058</v>
       </c>
       <c r="J7">
-        <v>0.03483353045614887</v>
+        <v>0.0009274295810821058</v>
       </c>
       <c r="K7">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L7">
         <v>1</v>
       </c>
       <c r="M7">
-        <v>5.19882538444689</v>
+        <v>6.744736333333333</v>
       </c>
       <c r="N7">
-        <v>5.19882538444689</v>
+        <v>20.234209</v>
       </c>
       <c r="O7">
-        <v>0.008204928361947422</v>
+        <v>0.01049273071342527</v>
       </c>
       <c r="P7">
-        <v>0.008204928361947422</v>
+        <v>0.01049273071342527</v>
       </c>
       <c r="Q7">
-        <v>9.649718627454643</v>
+        <v>0.3527317242697778</v>
       </c>
       <c r="R7">
-        <v>9.649718627454643</v>
+        <v>3.174585518428</v>
       </c>
       <c r="S7">
-        <v>0.0002858066219864152</v>
+        <v>9.731268849959346E-06</v>
       </c>
       <c r="T7">
-        <v>0.0002858066219864152</v>
+        <v>9.731268849959348E-06</v>
       </c>
     </row>
     <row r="8" spans="1:20">
@@ -897,61 +897,61 @@
         <v>21</v>
       </c>
       <c r="B8" t="s">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="C8" t="s">
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="D8" t="s">
-        <v>26</v>
+        <v>21</v>
       </c>
       <c r="E8">
         <v>1</v>
       </c>
       <c r="F8">
-        <v>1</v>
+        <v>0.3333333333333333</v>
       </c>
       <c r="G8">
-        <v>1.85613439842071</v>
+        <v>0.05229733333333333</v>
       </c>
       <c r="H8">
-        <v>1.85613439842071</v>
+        <v>0.156892</v>
       </c>
       <c r="I8">
-        <v>0.03483353045614887</v>
+        <v>0.0009274295810821058</v>
       </c>
       <c r="J8">
-        <v>0.03483353045614887</v>
+        <v>0.0009274295810821058</v>
       </c>
       <c r="K8">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L8">
         <v>1</v>
       </c>
       <c r="M8">
-        <v>182.049377209107</v>
+        <v>182.5316823333334</v>
       </c>
       <c r="N8">
-        <v>182.049377209107</v>
+        <v>547.595047</v>
       </c>
       <c r="O8">
-        <v>0.2873153044929174</v>
+        <v>0.283963033503136</v>
       </c>
       <c r="P8">
-        <v>0.2873153044929174</v>
+        <v>0.2839630335031361</v>
       </c>
       <c r="Q8">
-        <v>337.9081112488907</v>
+        <v>9.545920234880446</v>
       </c>
       <c r="R8">
-        <v>337.9081112488907</v>
+        <v>85.91328211392401</v>
       </c>
       <c r="S8">
-        <v>0.01000820640957173</v>
+        <v>0.0002633557172046174</v>
       </c>
       <c r="T8">
-        <v>0.01000820640957173</v>
+        <v>0.0002633557172046175</v>
       </c>
     </row>
     <row r="9" spans="1:20">
@@ -959,61 +959,61 @@
         <v>21</v>
       </c>
       <c r="B9" t="s">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="C9" t="s">
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="D9" t="s">
-        <v>21</v>
+        <v>22</v>
       </c>
       <c r="E9">
         <v>1</v>
       </c>
       <c r="F9">
-        <v>1</v>
+        <v>0.3333333333333333</v>
       </c>
       <c r="G9">
-        <v>1.85613439842071</v>
+        <v>0.05229733333333333</v>
       </c>
       <c r="H9">
-        <v>1.85613439842071</v>
+        <v>0.156892</v>
       </c>
       <c r="I9">
-        <v>0.03483353045614887</v>
+        <v>0.0009274295810821058</v>
       </c>
       <c r="J9">
-        <v>0.03483353045614887</v>
+        <v>0.0009274295810821058</v>
       </c>
       <c r="K9">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L9">
         <v>1</v>
       </c>
       <c r="M9">
-        <v>248.975499920352</v>
+        <v>249.1329143333333</v>
       </c>
       <c r="N9">
-        <v>248.975499920352</v>
+        <v>747.398743</v>
       </c>
       <c r="O9">
-        <v>0.3929399411717063</v>
+        <v>0.3875740210972192</v>
       </c>
       <c r="P9">
-        <v>0.3929399411717063</v>
+        <v>0.3875740210972192</v>
       </c>
       <c r="Q9">
-        <v>462.1319897661581</v>
+        <v>13.02898706519511</v>
       </c>
       <c r="R9">
-        <v>462.1319897661581</v>
+        <v>117.260883586756</v>
       </c>
       <c r="S9">
-        <v>0.01368748540824198</v>
+        <v>0.0003594476120245012</v>
       </c>
       <c r="T9">
-        <v>0.01368748540824198</v>
+        <v>0.0003594476120245013</v>
       </c>
     </row>
     <row r="10" spans="1:20">
@@ -1021,61 +1021,61 @@
         <v>21</v>
       </c>
       <c r="B10" t="s">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="C10" t="s">
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="D10" t="s">
-        <v>22</v>
+        <v>23</v>
       </c>
       <c r="E10">
         <v>1</v>
       </c>
       <c r="F10">
-        <v>1</v>
+        <v>0.3333333333333333</v>
       </c>
       <c r="G10">
-        <v>1.85613439842071</v>
+        <v>0.05229733333333333</v>
       </c>
       <c r="H10">
-        <v>1.85613439842071</v>
+        <v>0.156892</v>
       </c>
       <c r="I10">
-        <v>0.03483353045614887</v>
+        <v>0.0009274295810821058</v>
       </c>
       <c r="J10">
-        <v>0.03483353045614887</v>
+        <v>0.0009274295810821058</v>
       </c>
       <c r="K10">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L10">
         <v>1</v>
       </c>
       <c r="M10">
-        <v>181.911640839075</v>
+        <v>186.9310863333334</v>
       </c>
       <c r="N10">
-        <v>181.911640839075</v>
+        <v>560.793259</v>
       </c>
       <c r="O10">
-        <v>0.2870979251879059</v>
+        <v>0.2908071500393791</v>
       </c>
       <c r="P10">
-        <v>0.2870979251879059</v>
+        <v>0.2908071500393791</v>
       </c>
       <c r="Q10">
-        <v>337.6524540345607</v>
+        <v>9.775997332336447</v>
       </c>
       <c r="R10">
-        <v>337.6524540345607</v>
+        <v>87.983975991028</v>
       </c>
       <c r="S10">
-        <v>0.01000063432093007</v>
+        <v>0.0002697031533367024</v>
       </c>
       <c r="T10">
-        <v>0.01000063432093007</v>
+        <v>0.0002697031533367024</v>
       </c>
     </row>
     <row r="11" spans="1:20">
@@ -1083,61 +1083,61 @@
         <v>21</v>
       </c>
       <c r="B11" t="s">
+        <v>25</v>
+      </c>
+      <c r="C11" t="s">
+        <v>26</v>
+      </c>
+      <c r="D11" t="s">
         <v>24</v>
       </c>
-      <c r="C11" t="s">
-        <v>25</v>
-      </c>
-      <c r="D11" t="s">
-        <v>23</v>
-      </c>
       <c r="E11">
         <v>1</v>
       </c>
       <c r="F11">
-        <v>1</v>
+        <v>0.3333333333333333</v>
       </c>
       <c r="G11">
-        <v>1.85613439842071</v>
+        <v>0.05229733333333333</v>
       </c>
       <c r="H11">
-        <v>1.85613439842071</v>
+        <v>0.156892</v>
       </c>
       <c r="I11">
-        <v>0.03483353045614887</v>
+        <v>0.0009274295810821058</v>
       </c>
       <c r="J11">
-        <v>0.03483353045614887</v>
+        <v>0.0009274295810821058</v>
       </c>
       <c r="K11">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L11">
         <v>1</v>
       </c>
       <c r="M11">
-        <v>15.4869328094595</v>
+        <v>17.46044133333334</v>
       </c>
       <c r="N11">
-        <v>15.4869328094595</v>
+        <v>52.38132400000001</v>
       </c>
       <c r="O11">
-        <v>0.0244419007855228</v>
+        <v>0.02716306464684043</v>
       </c>
       <c r="P11">
-        <v>0.0244419007855228</v>
+        <v>0.02716306464684043</v>
       </c>
       <c r="Q11">
-        <v>28.74582871366806</v>
+        <v>0.9131345205564446</v>
       </c>
       <c r="R11">
-        <v>28.74582871366806</v>
+        <v>8.218210685008001</v>
       </c>
       <c r="S11">
-        <v>0.0008513976954186776</v>
+        <v>2.519182966632538E-05</v>
       </c>
       <c r="T11">
-        <v>0.0008513976954186776</v>
+        <v>2.519182966632538E-05</v>
       </c>
     </row>
     <row r="12" spans="1:20">
@@ -1145,61 +1145,61 @@
         <v>22</v>
       </c>
       <c r="B12" t="s">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="C12" t="s">
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="D12" t="s">
         <v>20</v>
       </c>
       <c r="E12">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F12">
         <v>1</v>
       </c>
       <c r="G12">
-        <v>1.2275454016719</v>
+        <v>1.896931</v>
       </c>
       <c r="H12">
-        <v>1.2275454016719</v>
+        <v>5.690793</v>
       </c>
       <c r="I12">
-        <v>0.02303698491436057</v>
+        <v>0.03363976345521111</v>
       </c>
       <c r="J12">
-        <v>0.02303698491436057</v>
+        <v>0.0336397634552111</v>
       </c>
       <c r="K12">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L12">
         <v>1</v>
       </c>
       <c r="M12">
-        <v>5.19882538444689</v>
+        <v>6.744736333333333</v>
       </c>
       <c r="N12">
-        <v>5.19882538444689</v>
+        <v>20.234209</v>
       </c>
       <c r="O12">
-        <v>0.008204928361947422</v>
+        <v>0.01049273071342527</v>
       </c>
       <c r="P12">
-        <v>0.008204928361947422</v>
+        <v>0.01049273071342527</v>
       </c>
       <c r="Q12">
-        <v>6.381794194772928</v>
+        <v>12.79429943752633</v>
       </c>
       <c r="R12">
-        <v>6.381794194772928</v>
+        <v>115.148694937737</v>
       </c>
       <c r="S12">
-        <v>0.000189016810897592</v>
+        <v>0.0003529729791988547</v>
       </c>
       <c r="T12">
-        <v>0.000189016810897592</v>
+        <v>0.0003529729791988547</v>
       </c>
     </row>
     <row r="13" spans="1:20">
@@ -1207,61 +1207,61 @@
         <v>22</v>
       </c>
       <c r="B13" t="s">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="C13" t="s">
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="D13" t="s">
-        <v>26</v>
+        <v>21</v>
       </c>
       <c r="E13">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F13">
         <v>1</v>
       </c>
       <c r="G13">
-        <v>1.2275454016719</v>
+        <v>1.896931</v>
       </c>
       <c r="H13">
-        <v>1.2275454016719</v>
+        <v>5.690793</v>
       </c>
       <c r="I13">
-        <v>0.02303698491436057</v>
+        <v>0.03363976345521111</v>
       </c>
       <c r="J13">
-        <v>0.02303698491436057</v>
+        <v>0.0336397634552111</v>
       </c>
       <c r="K13">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L13">
         <v>1</v>
       </c>
       <c r="M13">
-        <v>182.049377209107</v>
+        <v>182.5316823333334</v>
       </c>
       <c r="N13">
-        <v>182.049377209107</v>
+        <v>547.595047</v>
       </c>
       <c r="O13">
-        <v>0.2873153044929174</v>
+        <v>0.283963033503136</v>
       </c>
       <c r="P13">
-        <v>0.2873153044929174</v>
+        <v>0.2839630335031361</v>
       </c>
       <c r="Q13">
-        <v>223.4738758702725</v>
+        <v>346.2500067002524</v>
       </c>
       <c r="R13">
-        <v>223.4738758702725</v>
+        <v>3116.250060302271</v>
       </c>
       <c r="S13">
-        <v>0.006618878335268253</v>
+        <v>0.009552449277069682</v>
       </c>
       <c r="T13">
-        <v>0.006618878335268253</v>
+        <v>0.009552449277069682</v>
       </c>
     </row>
     <row r="14" spans="1:20">
@@ -1269,61 +1269,61 @@
         <v>22</v>
       </c>
       <c r="B14" t="s">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="C14" t="s">
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="D14" t="s">
-        <v>21</v>
+        <v>22</v>
       </c>
       <c r="E14">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F14">
         <v>1</v>
       </c>
       <c r="G14">
-        <v>1.2275454016719</v>
+        <v>1.896931</v>
       </c>
       <c r="H14">
-        <v>1.2275454016719</v>
+        <v>5.690793</v>
       </c>
       <c r="I14">
-        <v>0.02303698491436057</v>
+        <v>0.03363976345521111</v>
       </c>
       <c r="J14">
-        <v>0.02303698491436057</v>
+        <v>0.0336397634552111</v>
       </c>
       <c r="K14">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L14">
         <v>1</v>
       </c>
       <c r="M14">
-        <v>248.975499920352</v>
+        <v>249.1329143333333</v>
       </c>
       <c r="N14">
-        <v>248.975499920352</v>
+        <v>747.398743</v>
       </c>
       <c r="O14">
-        <v>0.3929399411717063</v>
+        <v>0.3875740210972192</v>
       </c>
       <c r="P14">
-        <v>0.3929399411717063</v>
+        <v>0.3875740210972192</v>
       </c>
       <c r="Q14">
-        <v>305.6287300561906</v>
+        <v>472.5879483192444</v>
       </c>
       <c r="R14">
-        <v>305.6287300561906</v>
+        <v>4253.291534873199</v>
       </c>
       <c r="S14">
-        <v>0.009052151497022329</v>
+        <v>0.01303789839109545</v>
       </c>
       <c r="T14">
-        <v>0.009052151497022329</v>
+        <v>0.01303789839109545</v>
       </c>
     </row>
     <row r="15" spans="1:20">
@@ -1331,61 +1331,61 @@
         <v>22</v>
       </c>
       <c r="B15" t="s">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="C15" t="s">
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="D15" t="s">
-        <v>22</v>
+        <v>23</v>
       </c>
       <c r="E15">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F15">
         <v>1</v>
       </c>
       <c r="G15">
-        <v>1.2275454016719</v>
+        <v>1.896931</v>
       </c>
       <c r="H15">
-        <v>1.2275454016719</v>
+        <v>5.690793</v>
       </c>
       <c r="I15">
-        <v>0.02303698491436057</v>
+        <v>0.03363976345521111</v>
       </c>
       <c r="J15">
-        <v>0.02303698491436057</v>
+        <v>0.0336397634552111</v>
       </c>
       <c r="K15">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L15">
         <v>1</v>
       </c>
       <c r="M15">
-        <v>181.911640839075</v>
+        <v>186.9310863333334</v>
       </c>
       <c r="N15">
-        <v>181.911640839075</v>
+        <v>560.793259</v>
       </c>
       <c r="O15">
-        <v>0.2870979251879059</v>
+        <v>0.2908071500393791</v>
       </c>
       <c r="P15">
-        <v>0.2870979251879059</v>
+        <v>0.2908071500393791</v>
       </c>
       <c r="Q15">
-        <v>223.3047982225968</v>
+        <v>354.5953725293764</v>
       </c>
       <c r="R15">
-        <v>223.3047982225968</v>
+        <v>3191.358352764387</v>
       </c>
       <c r="S15">
-        <v>0.006613870571498009</v>
+        <v>0.009782683738408798</v>
       </c>
       <c r="T15">
-        <v>0.006613870571498009</v>
+        <v>0.009782683738408796</v>
       </c>
     </row>
     <row r="16" spans="1:20">
@@ -1393,61 +1393,61 @@
         <v>22</v>
       </c>
       <c r="B16" t="s">
+        <v>25</v>
+      </c>
+      <c r="C16" t="s">
+        <v>26</v>
+      </c>
+      <c r="D16" t="s">
         <v>24</v>
       </c>
-      <c r="C16" t="s">
-        <v>25</v>
-      </c>
-      <c r="D16" t="s">
-        <v>23</v>
-      </c>
       <c r="E16">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F16">
         <v>1</v>
       </c>
       <c r="G16">
-        <v>1.2275454016719</v>
+        <v>1.896931</v>
       </c>
       <c r="H16">
-        <v>1.2275454016719</v>
+        <v>5.690793</v>
       </c>
       <c r="I16">
-        <v>0.02303698491436057</v>
+        <v>0.03363976345521111</v>
       </c>
       <c r="J16">
-        <v>0.02303698491436057</v>
+        <v>0.0336397634552111</v>
       </c>
       <c r="K16">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L16">
         <v>1</v>
       </c>
       <c r="M16">
-        <v>15.4869328094595</v>
+        <v>17.46044133333334</v>
       </c>
       <c r="N16">
-        <v>15.4869328094595</v>
+        <v>52.38132400000001</v>
       </c>
       <c r="O16">
-        <v>0.0244419007855228</v>
+        <v>0.02716306464684043</v>
       </c>
       <c r="P16">
-        <v>0.0244419007855228</v>
+        <v>0.02716306464684043</v>
       </c>
       <c r="Q16">
-        <v>19.01091315625369</v>
+        <v>33.12125243888134</v>
       </c>
       <c r="R16">
-        <v>19.01091315625369</v>
+        <v>298.091271949932</v>
       </c>
       <c r="S16">
-        <v>0.0005630676996743867</v>
+        <v>0.0009137590694383195</v>
       </c>
       <c r="T16">
-        <v>0.0005630676996743867</v>
+        <v>0.0009137590694383195</v>
       </c>
     </row>
     <row r="17" spans="1:20">
@@ -1455,61 +1455,61 @@
         <v>23</v>
       </c>
       <c r="B17" t="s">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="C17" t="s">
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="D17" t="s">
         <v>20</v>
       </c>
       <c r="E17">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F17">
         <v>1</v>
       </c>
       <c r="G17">
-        <v>1.79129853322718</v>
+        <v>3.047190333333333</v>
       </c>
       <c r="H17">
-        <v>1.79129853322718</v>
+        <v>9.141570999999999</v>
       </c>
       <c r="I17">
-        <v>0.03361677476928094</v>
+        <v>0.05403821331210212</v>
       </c>
       <c r="J17">
-        <v>0.03361677476928094</v>
+        <v>0.05403821331210212</v>
       </c>
       <c r="K17">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L17">
         <v>1</v>
       </c>
       <c r="M17">
-        <v>5.19882538444689</v>
+        <v>6.744736333333333</v>
       </c>
       <c r="N17">
-        <v>5.19882538444689</v>
+        <v>20.234209</v>
       </c>
       <c r="O17">
-        <v>0.008204928361947422</v>
+        <v>0.01049273071342527</v>
       </c>
       <c r="P17">
-        <v>0.008204928361947422</v>
+        <v>0.01049273071342527</v>
       </c>
       <c r="Q17">
-        <v>9.312648285663943</v>
+        <v>20.55249535581544</v>
       </c>
       <c r="R17">
-        <v>9.312648285663943</v>
+        <v>184.972458202339</v>
       </c>
       <c r="S17">
-        <v>0.0002758232287416717</v>
+        <v>0.0005670084205185203</v>
       </c>
       <c r="T17">
-        <v>0.0002758232287416717</v>
+        <v>0.0005670084205185204</v>
       </c>
     </row>
     <row r="18" spans="1:20">
@@ -1517,61 +1517,61 @@
         <v>23</v>
       </c>
       <c r="B18" t="s">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="C18" t="s">
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="D18" t="s">
-        <v>26</v>
+        <v>21</v>
       </c>
       <c r="E18">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F18">
         <v>1</v>
       </c>
       <c r="G18">
-        <v>1.79129853322718</v>
+        <v>3.047190333333333</v>
       </c>
       <c r="H18">
-        <v>1.79129853322718</v>
+        <v>9.141570999999999</v>
       </c>
       <c r="I18">
-        <v>0.03361677476928094</v>
+        <v>0.05403821331210212</v>
       </c>
       <c r="J18">
-        <v>0.03361677476928094</v>
+        <v>0.05403821331210212</v>
       </c>
       <c r="K18">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L18">
         <v>1</v>
       </c>
       <c r="M18">
-        <v>182.049377209107</v>
+        <v>182.5316823333334</v>
       </c>
       <c r="N18">
-        <v>182.049377209107</v>
+        <v>547.595047</v>
       </c>
       <c r="O18">
-        <v>0.2873153044929174</v>
+        <v>0.283963033503136</v>
       </c>
       <c r="P18">
-        <v>0.2873153044929174</v>
+        <v>0.2839630335031361</v>
       </c>
       <c r="Q18">
-        <v>326.104782369595</v>
+        <v>556.2087779332041</v>
       </c>
       <c r="R18">
-        <v>326.104782369595</v>
+        <v>5005.879001398836</v>
       </c>
       <c r="S18">
-        <v>0.009658613878905776</v>
+        <v>0.01534485497719407</v>
       </c>
       <c r="T18">
-        <v>0.009658613878905776</v>
+        <v>0.01534485497719407</v>
       </c>
     </row>
     <row r="19" spans="1:20">
@@ -1579,61 +1579,61 @@
         <v>23</v>
       </c>
       <c r="B19" t="s">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="C19" t="s">
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="D19" t="s">
-        <v>21</v>
+        <v>22</v>
       </c>
       <c r="E19">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F19">
         <v>1</v>
       </c>
       <c r="G19">
-        <v>1.79129853322718</v>
+        <v>3.047190333333333</v>
       </c>
       <c r="H19">
-        <v>1.79129853322718</v>
+        <v>9.141570999999999</v>
       </c>
       <c r="I19">
-        <v>0.03361677476928094</v>
+        <v>0.05403821331210212</v>
       </c>
       <c r="J19">
-        <v>0.03361677476928094</v>
+        <v>0.05403821331210212</v>
       </c>
       <c r="K19">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L19">
         <v>1</v>
       </c>
       <c r="M19">
-        <v>248.975499920352</v>
+        <v>249.1329143333333</v>
       </c>
       <c r="N19">
-        <v>248.975499920352</v>
+        <v>747.398743</v>
       </c>
       <c r="O19">
-        <v>0.3929399411717063</v>
+        <v>0.3875740210972192</v>
       </c>
       <c r="P19">
-        <v>0.3929399411717063</v>
+        <v>0.3875740210972192</v>
       </c>
       <c r="Q19">
-        <v>445.9894478168304</v>
+        <v>759.1554082716947</v>
       </c>
       <c r="R19">
-        <v>445.9894478168304</v>
+        <v>6832.398674445252</v>
       </c>
       <c r="S19">
-        <v>0.01320937350022375</v>
+        <v>0.0209438076262807</v>
       </c>
       <c r="T19">
-        <v>0.01320937350022375</v>
+        <v>0.0209438076262807</v>
       </c>
     </row>
     <row r="20" spans="1:20">
@@ -1641,61 +1641,61 @@
         <v>23</v>
       </c>
       <c r="B20" t="s">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="C20" t="s">
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="D20" t="s">
-        <v>22</v>
+        <v>23</v>
       </c>
       <c r="E20">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F20">
         <v>1</v>
       </c>
       <c r="G20">
-        <v>1.79129853322718</v>
+        <v>3.047190333333333</v>
       </c>
       <c r="H20">
-        <v>1.79129853322718</v>
+        <v>9.141570999999999</v>
       </c>
       <c r="I20">
-        <v>0.03361677476928094</v>
+        <v>0.05403821331210212</v>
       </c>
       <c r="J20">
-        <v>0.03361677476928094</v>
+        <v>0.05403821331210212</v>
       </c>
       <c r="K20">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L20">
         <v>1</v>
       </c>
       <c r="M20">
-        <v>181.911640839075</v>
+        <v>186.9310863333334</v>
       </c>
       <c r="N20">
-        <v>181.911640839075</v>
+        <v>560.793259</v>
       </c>
       <c r="O20">
-        <v>0.2870979251879059</v>
+        <v>0.2908071500393791</v>
       </c>
       <c r="P20">
-        <v>0.2870979251879059</v>
+        <v>0.2908071500393791</v>
       </c>
       <c r="Q20">
-        <v>325.8580554119847</v>
+        <v>569.6145992744321</v>
       </c>
       <c r="R20">
-        <v>325.8580554119847</v>
+        <v>5126.531393469889</v>
       </c>
       <c r="S20">
-        <v>0.009651306287769704</v>
+        <v>0.01571469880651245</v>
       </c>
       <c r="T20">
-        <v>0.009651306287769704</v>
+        <v>0.01571469880651245</v>
       </c>
     </row>
     <row r="21" spans="1:20">
@@ -1703,61 +1703,371 @@
         <v>23</v>
       </c>
       <c r="B21" t="s">
+        <v>25</v>
+      </c>
+      <c r="C21" t="s">
+        <v>26</v>
+      </c>
+      <c r="D21" t="s">
         <v>24</v>
       </c>
-      <c r="C21" t="s">
-        <v>25</v>
-      </c>
-      <c r="D21" t="s">
+      <c r="E21">
+        <v>3</v>
+      </c>
+      <c r="F21">
+        <v>1</v>
+      </c>
+      <c r="G21">
+        <v>3.047190333333333</v>
+      </c>
+      <c r="H21">
+        <v>9.141570999999999</v>
+      </c>
+      <c r="I21">
+        <v>0.05403821331210212</v>
+      </c>
+      <c r="J21">
+        <v>0.05403821331210212</v>
+      </c>
+      <c r="K21">
+        <v>3</v>
+      </c>
+      <c r="L21">
+        <v>1</v>
+      </c>
+      <c r="M21">
+        <v>17.46044133333334</v>
+      </c>
+      <c r="N21">
+        <v>52.38132400000001</v>
+      </c>
+      <c r="O21">
+        <v>0.02716306464684043</v>
+      </c>
+      <c r="P21">
+        <v>0.02716306464684043</v>
+      </c>
+      <c r="Q21">
+        <v>53.20528804666711</v>
+      </c>
+      <c r="R21">
+        <v>478.847592420004</v>
+      </c>
+      <c r="S21">
+        <v>0.001467843481596383</v>
+      </c>
+      <c r="T21">
+        <v>0.001467843481596383</v>
+      </c>
+    </row>
+    <row r="22" spans="1:20">
+      <c r="A22" t="s">
+        <v>24</v>
+      </c>
+      <c r="B22" t="s">
+        <v>25</v>
+      </c>
+      <c r="C22" t="s">
+        <v>26</v>
+      </c>
+      <c r="D22" t="s">
+        <v>20</v>
+      </c>
+      <c r="E22">
+        <v>3</v>
+      </c>
+      <c r="F22">
+        <v>1</v>
+      </c>
+      <c r="G22">
+        <v>2.197513666666667</v>
+      </c>
+      <c r="H22">
+        <v>6.592541</v>
+      </c>
+      <c r="I22">
+        <v>0.03897023135594298</v>
+      </c>
+      <c r="J22">
+        <v>0.03897023135594298</v>
+      </c>
+      <c r="K22">
+        <v>3</v>
+      </c>
+      <c r="L22">
+        <v>1</v>
+      </c>
+      <c r="M22">
+        <v>6.744736333333333</v>
+      </c>
+      <c r="N22">
+        <v>20.234209</v>
+      </c>
+      <c r="O22">
+        <v>0.01049273071342527</v>
+      </c>
+      <c r="P22">
+        <v>0.01049273071342527</v>
+      </c>
+      <c r="Q22">
+        <v>14.82165027056322</v>
+      </c>
+      <c r="R22">
+        <v>133.394852435069</v>
+      </c>
+      <c r="S22">
+        <v>0.0004089041434577916</v>
+      </c>
+      <c r="T22">
+        <v>0.0004089041434577916</v>
+      </c>
+    </row>
+    <row r="23" spans="1:20">
+      <c r="A23" t="s">
+        <v>24</v>
+      </c>
+      <c r="B23" t="s">
+        <v>25</v>
+      </c>
+      <c r="C23" t="s">
+        <v>26</v>
+      </c>
+      <c r="D23" t="s">
+        <v>21</v>
+      </c>
+      <c r="E23">
+        <v>3</v>
+      </c>
+      <c r="F23">
+        <v>1</v>
+      </c>
+      <c r="G23">
+        <v>2.197513666666667</v>
+      </c>
+      <c r="H23">
+        <v>6.592541</v>
+      </c>
+      <c r="I23">
+        <v>0.03897023135594298</v>
+      </c>
+      <c r="J23">
+        <v>0.03897023135594298</v>
+      </c>
+      <c r="K23">
+        <v>3</v>
+      </c>
+      <c r="L23">
+        <v>1</v>
+      </c>
+      <c r="M23">
+        <v>182.5316823333334</v>
+      </c>
+      <c r="N23">
+        <v>547.595047</v>
+      </c>
+      <c r="O23">
+        <v>0.283963033503136</v>
+      </c>
+      <c r="P23">
+        <v>0.2839630335031361</v>
+      </c>
+      <c r="Q23">
+        <v>401.1158665271586</v>
+      </c>
+      <c r="R23">
+        <v>3610.042798744427</v>
+      </c>
+      <c r="S23">
+        <v>0.0110661051121526</v>
+      </c>
+      <c r="T23">
+        <v>0.0110661051121526</v>
+      </c>
+    </row>
+    <row r="24" spans="1:20">
+      <c r="A24" t="s">
+        <v>24</v>
+      </c>
+      <c r="B24" t="s">
+        <v>25</v>
+      </c>
+      <c r="C24" t="s">
+        <v>26</v>
+      </c>
+      <c r="D24" t="s">
+        <v>22</v>
+      </c>
+      <c r="E24">
+        <v>3</v>
+      </c>
+      <c r="F24">
+        <v>1</v>
+      </c>
+      <c r="G24">
+        <v>2.197513666666667</v>
+      </c>
+      <c r="H24">
+        <v>6.592541</v>
+      </c>
+      <c r="I24">
+        <v>0.03897023135594298</v>
+      </c>
+      <c r="J24">
+        <v>0.03897023135594298</v>
+      </c>
+      <c r="K24">
+        <v>3</v>
+      </c>
+      <c r="L24">
+        <v>1</v>
+      </c>
+      <c r="M24">
+        <v>249.1329143333333</v>
+      </c>
+      <c r="N24">
+        <v>747.398743</v>
+      </c>
+      <c r="O24">
+        <v>0.3875740210972192</v>
+      </c>
+      <c r="P24">
+        <v>0.3875740210972192</v>
+      </c>
+      <c r="Q24">
+        <v>547.4729840639959</v>
+      </c>
+      <c r="R24">
+        <v>4927.256856575963</v>
+      </c>
+      <c r="S24">
+        <v>0.01510384926971176</v>
+      </c>
+      <c r="T24">
+        <v>0.01510384926971176</v>
+      </c>
+    </row>
+    <row r="25" spans="1:20">
+      <c r="A25" t="s">
+        <v>24</v>
+      </c>
+      <c r="B25" t="s">
+        <v>25</v>
+      </c>
+      <c r="C25" t="s">
+        <v>26</v>
+      </c>
+      <c r="D25" t="s">
         <v>23</v>
       </c>
-      <c r="E21">
-        <v>1</v>
-      </c>
-      <c r="F21">
-        <v>1</v>
-      </c>
-      <c r="G21">
-        <v>1.79129853322718</v>
-      </c>
-      <c r="H21">
-        <v>1.79129853322718</v>
-      </c>
-      <c r="I21">
-        <v>0.03361677476928094</v>
-      </c>
-      <c r="J21">
-        <v>0.03361677476928094</v>
-      </c>
-      <c r="K21">
-        <v>1</v>
-      </c>
-      <c r="L21">
-        <v>1</v>
-      </c>
-      <c r="M21">
-        <v>15.4869328094595</v>
-      </c>
-      <c r="N21">
-        <v>15.4869328094595</v>
-      </c>
-      <c r="O21">
-        <v>0.0244419007855228</v>
-      </c>
-      <c r="P21">
-        <v>0.0244419007855228</v>
-      </c>
-      <c r="Q21">
-        <v>27.74172002577269</v>
-      </c>
-      <c r="R21">
-        <v>27.74172002577269</v>
-      </c>
-      <c r="S21">
-        <v>0.0008216578736400309</v>
-      </c>
-      <c r="T21">
-        <v>0.0008216578736400309</v>
+      <c r="E25">
+        <v>3</v>
+      </c>
+      <c r="F25">
+        <v>1</v>
+      </c>
+      <c r="G25">
+        <v>2.197513666666667</v>
+      </c>
+      <c r="H25">
+        <v>6.592541</v>
+      </c>
+      <c r="I25">
+        <v>0.03897023135594298</v>
+      </c>
+      <c r="J25">
+        <v>0.03897023135594298</v>
+      </c>
+      <c r="K25">
+        <v>3</v>
+      </c>
+      <c r="L25">
+        <v>1</v>
+      </c>
+      <c r="M25">
+        <v>186.9310863333334</v>
+      </c>
+      <c r="N25">
+        <v>560.793259</v>
+      </c>
+      <c r="O25">
+        <v>0.2908071500393791</v>
+      </c>
+      <c r="P25">
+        <v>0.2908071500393791</v>
+      </c>
+      <c r="Q25">
+        <v>410.7836169423466</v>
+      </c>
+      <c r="R25">
+        <v>3697.052552481119</v>
+      </c>
+      <c r="S25">
+        <v>0.01133282191699703</v>
+      </c>
+      <c r="T25">
+        <v>0.01133282191699703</v>
+      </c>
+    </row>
+    <row r="26" spans="1:20">
+      <c r="A26" t="s">
+        <v>24</v>
+      </c>
+      <c r="B26" t="s">
+        <v>25</v>
+      </c>
+      <c r="C26" t="s">
+        <v>26</v>
+      </c>
+      <c r="D26" t="s">
+        <v>24</v>
+      </c>
+      <c r="E26">
+        <v>3</v>
+      </c>
+      <c r="F26">
+        <v>1</v>
+      </c>
+      <c r="G26">
+        <v>2.197513666666667</v>
+      </c>
+      <c r="H26">
+        <v>6.592541</v>
+      </c>
+      <c r="I26">
+        <v>0.03897023135594298</v>
+      </c>
+      <c r="J26">
+        <v>0.03897023135594298</v>
+      </c>
+      <c r="K26">
+        <v>3</v>
+      </c>
+      <c r="L26">
+        <v>1</v>
+      </c>
+      <c r="M26">
+        <v>17.46044133333334</v>
+      </c>
+      <c r="N26">
+        <v>52.38132400000001</v>
+      </c>
+      <c r="O26">
+        <v>0.02716306464684043</v>
+      </c>
+      <c r="P26">
+        <v>0.02716306464684043</v>
+      </c>
+      <c r="Q26">
+        <v>38.36955845603156</v>
+      </c>
+      <c r="R26">
+        <v>345.326026104284</v>
+      </c>
+      <c r="S26">
+        <v>0.001058550913623807</v>
+      </c>
+      <c r="T26">
+        <v>0.001058550913623807</v>
       </c>
     </row>
   </sheetData>
